--- a/teams/45분반_2차_팀편성.xlsx
+++ b/teams/45분반_2차_팀편성.xlsx
@@ -2123,7 +2123,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2146,6 +2146,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2341,20 +2345,20 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="L6" s="6"/>
-      <c r="N6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="6"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="7"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="7"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,12 +2369,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="L7" s="6"/>
-      <c r="N7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="6"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="N7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
       <c r="V7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="M8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="V8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -2394,10 +2398,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="M9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2407,10 +2411,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="M10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2420,10 +2424,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="M11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2433,10 +2437,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="M12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2494,9 +2498,9 @@
         <v>16</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="N17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="6"/>
+      <c r="N17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2506,9 +2510,9 @@
         <v>17</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="N18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="6"/>
+      <c r="N18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2517,10 +2521,10 @@
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="M19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="S19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="M19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2529,10 +2533,10 @@
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="M20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="S20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="M20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2541,10 +2545,10 @@
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="M21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="S21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="M21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2553,10 +2557,10 @@
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="M22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="S22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="M22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2565,10 +2569,10 @@
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="M23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="M23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -2577,7 +2581,7 @@
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -2586,7 +2590,7 @@
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="12"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2606,7 +2610,7 @@
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -2615,7 +2619,7 @@
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -2624,7 +2628,7 @@
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -2633,9 +2637,9 @@
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="9"/>
+      <c r="C29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -2644,9 +2648,9 @@
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="9"/>
+      <c r="C30" s="13"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -2655,9 +2659,9 @@
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="9"/>
+      <c r="C31" s="13"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -2666,9 +2670,9 @@
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="9"/>
+      <c r="C32" s="13"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -2677,9 +2681,9 @@
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="9"/>
+      <c r="C33" s="13"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -2688,7 +2692,7 @@
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -2697,7 +2701,7 @@
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -2706,7 +2710,7 @@
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="13"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -2732,7 +2736,7 @@
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -2741,7 +2745,7 @@
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -2750,7 +2754,7 @@
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="12"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -2759,7 +2763,7 @@
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -2768,7 +2772,7 @@
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="12"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -2777,7 +2781,7 @@
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -2786,7 +2790,7 @@
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -2795,7 +2799,7 @@
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -2804,7 +2808,7 @@
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="12"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -2813,7 +2817,7 @@
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -2822,7 +2826,7 @@
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="12"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -2831,7 +2835,7 @@
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="12"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -2840,7 +2844,7 @@
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="11"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -2849,7 +2853,7 @@
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -2858,7 +2862,7 @@
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -2867,7 +2871,7 @@
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="12"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -2876,7 +2880,7 @@
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="12"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -2885,7 +2889,7 @@
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="11"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -2894,7 +2898,7 @@
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="11"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -2903,7 +2907,7 @@
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="11"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -2912,7 +2916,7 @@
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="11"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -2921,7 +2925,7 @@
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="11"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -2930,7 +2934,7 @@
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="11"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -2939,7 +2943,7 @@
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -2948,7 +2952,7 @@
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -2957,7 +2961,7 @@
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -2966,7 +2970,7 @@
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -2975,7 +2979,7 @@
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="12"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -2984,7 +2988,7 @@
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -2993,7 +2997,7 @@
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="12"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -3002,7 +3006,7 @@
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -3011,7 +3015,7 @@
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="12"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -3020,7 +3024,7 @@
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -3029,7 +3033,7 @@
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="12"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -3038,7 +3042,7 @@
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -3047,7 +3051,7 @@
       <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="12"/>
+      <c r="C72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -3056,7 +3060,7 @@
       <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="12"/>
+      <c r="C73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -3065,7 +3069,7 @@
       <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="11"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -3074,7 +3078,7 @@
       <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="11"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -3083,7 +3087,7 @@
       <c r="B76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="11"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -3092,13 +3096,13 @@
       <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="11"/>
+      <c r="C77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="5"/>
@@ -3110,7 +3114,7 @@
       <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="11"/>
+      <c r="C79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -3119,7 +3123,7 @@
       <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="11"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -3128,7 +3132,7 @@
       <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="11"/>
+      <c r="C81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -3137,7 +3141,7 @@
       <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="11"/>
+      <c r="C82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -3146,7 +3150,7 @@
       <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="11"/>
+      <c r="C83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
